--- a/bookkeeping/sprint2/overview/s2_burndown.xlsx
+++ b/bookkeeping/sprint2/overview/s2_burndown.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amee\git\ecse428group\bookkeeping\sprint2\overview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amee\git\mcbuddy\bookkeeping\sprint2\overview\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -371,7 +371,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-3</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -556,11 +556,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1413398752"/>
-        <c:axId val="1413400928"/>
+        <c:axId val="1499700704"/>
+        <c:axId val="1455385648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1413398752"/>
+        <c:axId val="1499700704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42065"/>
@@ -596,14 +596,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1413400928"/>
+        <c:crossAx val="1455385648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1413400928"/>
+        <c:axId val="1455385648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -633,7 +633,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1413398752"/>
+        <c:crossAx val="1499700704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="W4">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
         <v>4</v>
       </c>
       <c r="V6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -1449,11 +1449,11 @@
         <v>7</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1537,11 +1537,11 @@
       </c>
       <c r="E20">
         <f>E11+E12+E13+E14+E15+E16+E17+E18+E19</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F20">
         <f>F11+F12+F13+F14+F15+F16+F17+F18+F19</f>
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
